--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.55731578927292</v>
+        <v>6.643695666666666</v>
       </c>
       <c r="H2">
-        <v>3.55731578927292</v>
+        <v>19.931087</v>
       </c>
       <c r="I2">
-        <v>0.01743729262971799</v>
+        <v>0.02330062621916135</v>
       </c>
       <c r="J2">
-        <v>0.01743729262971799</v>
+        <v>0.0235018519445706</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>4.650414588185193</v>
+        <v>14.07198964591444</v>
       </c>
       <c r="R2">
-        <v>4.650414588185193</v>
+        <v>126.64790681323</v>
       </c>
       <c r="S2">
-        <v>0.0002278956672586937</v>
+        <v>0.0004519465221938831</v>
       </c>
       <c r="T2">
-        <v>0.0002278956672586937</v>
+        <v>0.0005291565938032944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.55731578927292</v>
+        <v>6.643695666666666</v>
       </c>
       <c r="H3">
-        <v>3.55731578927292</v>
+        <v>19.931087</v>
       </c>
       <c r="I3">
-        <v>0.01743729262971799</v>
+        <v>0.02330062621916135</v>
       </c>
       <c r="J3">
-        <v>0.01743729262971799</v>
+        <v>0.0235018519445706</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>58.20947979253675</v>
+        <v>120.037522636636</v>
       </c>
       <c r="R3">
-        <v>58.20947979253675</v>
+        <v>1080.337703729724</v>
       </c>
       <c r="S3">
-        <v>0.002852581847606516</v>
+        <v>0.003855214667824025</v>
       </c>
       <c r="T3">
-        <v>0.002852581847606516</v>
+        <v>0.004513835513333374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.55731578927292</v>
+        <v>6.643695666666666</v>
       </c>
       <c r="H4">
-        <v>3.55731578927292</v>
+        <v>19.931087</v>
       </c>
       <c r="I4">
-        <v>0.01743729262971799</v>
+        <v>0.02330062621916135</v>
       </c>
       <c r="J4">
-        <v>0.01743729262971799</v>
+        <v>0.0235018519445706</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>66.55438585164337</v>
+        <v>144.255766519249</v>
       </c>
       <c r="R4">
-        <v>66.55438585164337</v>
+        <v>1298.301898673241</v>
       </c>
       <c r="S4">
-        <v>0.003261527738018704</v>
+        <v>0.004633025863809946</v>
       </c>
       <c r="T4">
-        <v>0.003261527738018704</v>
+        <v>0.005424527161300983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.55731578927292</v>
+        <v>6.643695666666666</v>
       </c>
       <c r="H5">
-        <v>3.55731578927292</v>
+        <v>19.931087</v>
       </c>
       <c r="I5">
-        <v>0.01743729262971799</v>
+        <v>0.02330062621916135</v>
       </c>
       <c r="J5">
-        <v>0.01743729262971799</v>
+        <v>0.0235018519445706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>66.13072500569093</v>
+        <v>145.6106308785089</v>
       </c>
       <c r="R5">
-        <v>66.13072500569093</v>
+        <v>1310.49567790658</v>
       </c>
       <c r="S5">
-        <v>0.003240766046915934</v>
+        <v>0.004676539698784216</v>
       </c>
       <c r="T5">
-        <v>0.003240766046915934</v>
+        <v>0.005475474854374335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.55731578927292</v>
+        <v>6.643695666666666</v>
       </c>
       <c r="H6">
-        <v>3.55731578927292</v>
+        <v>19.931087</v>
       </c>
       <c r="I6">
-        <v>0.01743729262971799</v>
+        <v>0.02330062621916135</v>
       </c>
       <c r="J6">
-        <v>0.01743729262971799</v>
+        <v>0.0235018519445706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>160.2785213744324</v>
+        <v>301.521809181879</v>
       </c>
       <c r="R6">
-        <v>160.2785213744324</v>
+        <v>1809.130855091274</v>
       </c>
       <c r="S6">
-        <v>0.007854521329918139</v>
+        <v>0.009683899466549281</v>
       </c>
       <c r="T6">
-        <v>0.007854521329918139</v>
+        <v>0.007558857821758616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>116.87043358455</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H7">
-        <v>116.87043358455</v>
+        <v>419.995132</v>
       </c>
       <c r="I7">
-        <v>0.5728768742772613</v>
+        <v>0.490999290936783</v>
       </c>
       <c r="J7">
-        <v>0.5728768742772613</v>
+        <v>0.4952395927881098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>152.7826039251368</v>
+        <v>296.5300963684756</v>
       </c>
       <c r="R7">
-        <v>152.7826039251368</v>
+        <v>2668.77086731628</v>
       </c>
       <c r="S7">
-        <v>0.007487180509776348</v>
+        <v>0.009523581892235023</v>
       </c>
       <c r="T7">
-        <v>0.007487180509776348</v>
+        <v>0.01115058067144482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>116.87043358455</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H8">
-        <v>116.87043358455</v>
+        <v>419.995132</v>
       </c>
       <c r="I8">
-        <v>0.5728768742772613</v>
+        <v>0.490999290936783</v>
       </c>
       <c r="J8">
-        <v>0.5728768742772613</v>
+        <v>0.4952395927881098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>1912.387751067591</v>
+        <v>2529.474441846896</v>
       </c>
       <c r="R8">
-        <v>1912.387751067591</v>
+        <v>22765.26997662207</v>
       </c>
       <c r="S8">
-        <v>0.09371742547302225</v>
+        <v>0.08123848906490086</v>
       </c>
       <c r="T8">
-        <v>0.09371742547302225</v>
+        <v>0.09511718765006337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>116.87043358455</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H9">
-        <v>116.87043358455</v>
+        <v>419.995132</v>
       </c>
       <c r="I9">
-        <v>0.5728768742772613</v>
+        <v>0.490999290936783</v>
       </c>
       <c r="J9">
-        <v>0.5728768742772613</v>
+        <v>0.4952395927881098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>2186.54749597724</v>
+        <v>3039.810106744964</v>
       </c>
       <c r="R9">
-        <v>2186.54749597724</v>
+        <v>27358.29096070468</v>
       </c>
       <c r="S9">
-        <v>0.107152747596859</v>
+        <v>0.09762881017128032</v>
       </c>
       <c r="T9">
-        <v>0.107152747596859</v>
+        <v>0.1143076140878916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>116.87043358455</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H10">
-        <v>116.87043358455</v>
+        <v>419.995132</v>
       </c>
       <c r="I10">
-        <v>0.5728768742772613</v>
+        <v>0.490999290936783</v>
       </c>
       <c r="J10">
-        <v>0.5728768742772613</v>
+        <v>0.4952395927881098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>2172.628735402604</v>
+        <v>3068.360302497431</v>
       </c>
       <c r="R10">
-        <v>2172.628735402604</v>
+        <v>27615.24272247688</v>
       </c>
       <c r="S10">
-        <v>0.106470652448476</v>
+        <v>0.09854574956670036</v>
       </c>
       <c r="T10">
-        <v>0.106470652448476</v>
+        <v>0.1153812024515086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>116.87043358455</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H11">
-        <v>116.87043358455</v>
+        <v>419.995132</v>
       </c>
       <c r="I11">
-        <v>0.5728768742772613</v>
+        <v>0.490999290936783</v>
       </c>
       <c r="J11">
-        <v>0.5728768742772613</v>
+        <v>0.4952395927881098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>5265.717579475585</v>
+        <v>6353.777495839645</v>
       </c>
       <c r="R11">
-        <v>5265.717579475585</v>
+        <v>38122.66497503787</v>
       </c>
       <c r="S11">
-        <v>0.2580488682491276</v>
+        <v>0.2040626602416665</v>
       </c>
       <c r="T11">
-        <v>0.2580488682491276</v>
+        <v>0.1592830079272015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.9095263592397</v>
+        <v>92.13145400000001</v>
       </c>
       <c r="H12">
-        <v>42.9095263592397</v>
+        <v>276.394362</v>
       </c>
       <c r="I12">
-        <v>0.2103344240578625</v>
+        <v>0.3231214493241425</v>
       </c>
       <c r="J12">
-        <v>0.2103344240578625</v>
+        <v>0.3259119472027818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>56.09484768118121</v>
+        <v>195.1433256125534</v>
       </c>
       <c r="R12">
-        <v>56.09484768118121</v>
+        <v>1756.28993051298</v>
       </c>
       <c r="S12">
-        <v>0.002748953345913703</v>
+        <v>0.006267368691928202</v>
       </c>
       <c r="T12">
-        <v>0.002748953345913703</v>
+        <v>0.007338079410438314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.9095263592397</v>
+        <v>92.13145400000001</v>
       </c>
       <c r="H13">
-        <v>42.9095263592397</v>
+        <v>276.394362</v>
       </c>
       <c r="I13">
-        <v>0.2103344240578625</v>
+        <v>0.3231214493241425</v>
       </c>
       <c r="J13">
-        <v>0.2103344240578625</v>
+        <v>0.3259119472027818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>702.1421081162996</v>
+        <v>1664.620423623336</v>
       </c>
       <c r="R13">
-        <v>702.1421081162996</v>
+        <v>14981.58381261003</v>
       </c>
       <c r="S13">
-        <v>0.03440879113146669</v>
+        <v>0.05346219192592273</v>
       </c>
       <c r="T13">
-        <v>0.03440879113146669</v>
+        <v>0.06259561693151611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.9095263592397</v>
+        <v>92.13145400000001</v>
       </c>
       <c r="H14">
-        <v>42.9095263592397</v>
+        <v>276.394362</v>
       </c>
       <c r="I14">
-        <v>0.2103344240578625</v>
+        <v>0.3231214493241425</v>
       </c>
       <c r="J14">
-        <v>0.2103344240578625</v>
+        <v>0.3259119472027818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>802.8011408590188</v>
+        <v>2000.466936495174</v>
       </c>
       <c r="R14">
-        <v>802.8011408590188</v>
+        <v>18004.20242845657</v>
       </c>
       <c r="S14">
-        <v>0.03934163249378249</v>
+        <v>0.06424848919465603</v>
       </c>
       <c r="T14">
-        <v>0.03934163249378249</v>
+        <v>0.07522463395495974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.9095263592397</v>
+        <v>92.13145400000001</v>
       </c>
       <c r="H15">
-        <v>42.9095263592397</v>
+        <v>276.394362</v>
       </c>
       <c r="I15">
-        <v>0.2103344240578625</v>
+        <v>0.3231214493241425</v>
       </c>
       <c r="J15">
-        <v>0.2103344240578625</v>
+        <v>0.3259119472027818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>797.6908028081791</v>
+        <v>2019.255518882787</v>
       </c>
       <c r="R15">
-        <v>797.6908028081791</v>
+        <v>18173.29966994508</v>
       </c>
       <c r="S15">
-        <v>0.03909119806951149</v>
+        <v>0.06485191732960353</v>
       </c>
       <c r="T15">
-        <v>0.03909119806951149</v>
+        <v>0.07593115112195525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.9095263592397</v>
+        <v>92.13145400000001</v>
       </c>
       <c r="H16">
-        <v>42.9095263592397</v>
+        <v>276.394362</v>
       </c>
       <c r="I16">
-        <v>0.2103344240578625</v>
+        <v>0.3231214493241425</v>
       </c>
       <c r="J16">
-        <v>0.2103344240578625</v>
+        <v>0.3259119472027818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N16">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O16">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P16">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q16">
-        <v>1933.332840023702</v>
+        <v>4181.353885912555</v>
       </c>
       <c r="R16">
-        <v>1933.332840023702</v>
+        <v>25088.12331547533</v>
       </c>
       <c r="S16">
-        <v>0.0947438490171881</v>
+        <v>0.134291482182032</v>
       </c>
       <c r="T16">
-        <v>0.0947438490171881</v>
+        <v>0.1048224657839125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.384898204595</v>
+        <v>39.03202233333334</v>
       </c>
       <c r="H17">
-        <v>35.384898204595</v>
+        <v>117.096067</v>
       </c>
       <c r="I17">
-        <v>0.1734501127301992</v>
+        <v>0.1368922672858171</v>
       </c>
       <c r="J17">
-        <v>0.1734501127301992</v>
+        <v>0.1380744778207792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N17">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O17">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P17">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q17">
-        <v>46.25803739671083</v>
+        <v>82.67359639749223</v>
       </c>
       <c r="R17">
-        <v>46.25803739671083</v>
+        <v>744.0623675774301</v>
       </c>
       <c r="S17">
-        <v>0.002266896015117439</v>
+        <v>0.002655206925905844</v>
       </c>
       <c r="T17">
-        <v>0.002266896015117439</v>
+        <v>0.003108819702682667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.384898204595</v>
+        <v>39.03202233333334</v>
       </c>
       <c r="H18">
-        <v>35.384898204595</v>
+        <v>117.096067</v>
       </c>
       <c r="I18">
-        <v>0.1734501127301992</v>
+        <v>0.1368922672858171</v>
       </c>
       <c r="J18">
-        <v>0.1734501127301992</v>
+        <v>0.1380744778207792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N18">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P18">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q18">
-        <v>579.0142452948581</v>
+        <v>705.2260518040762</v>
       </c>
       <c r="R18">
-        <v>579.0142452948581</v>
+        <v>6347.034466236685</v>
       </c>
       <c r="S18">
-        <v>0.02837485460307219</v>
+        <v>0.02264956623002573</v>
       </c>
       <c r="T18">
-        <v>0.02837485460307219</v>
+        <v>0.02651899445806765</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.384898204595</v>
+        <v>39.03202233333334</v>
       </c>
       <c r="H19">
-        <v>35.384898204595</v>
+        <v>117.096067</v>
       </c>
       <c r="I19">
-        <v>0.1734501127301992</v>
+        <v>0.1368922672858171</v>
       </c>
       <c r="J19">
-        <v>0.1734501127301992</v>
+        <v>0.1380744778207792</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N19">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O19">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P19">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q19">
-        <v>662.021678123516</v>
+        <v>847.5093657197092</v>
       </c>
       <c r="R19">
-        <v>662.021678123516</v>
+        <v>7627.584291477382</v>
       </c>
       <c r="S19">
-        <v>0.0324426713392356</v>
+        <v>0.02721924333386445</v>
       </c>
       <c r="T19">
-        <v>0.0324426713392356</v>
+        <v>0.03186935042343751</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.384898204595</v>
+        <v>39.03202233333334</v>
       </c>
       <c r="H20">
-        <v>35.384898204595</v>
+        <v>117.096067</v>
       </c>
       <c r="I20">
-        <v>0.1734501127301992</v>
+        <v>0.1368922672858171</v>
       </c>
       <c r="J20">
-        <v>0.1734501127301992</v>
+        <v>0.1380744778207792</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N20">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O20">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P20">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q20">
-        <v>657.807490574436</v>
+        <v>855.4692571088646</v>
       </c>
       <c r="R20">
-        <v>657.807490574436</v>
+        <v>7699.22331397978</v>
       </c>
       <c r="S20">
-        <v>0.03223615317505066</v>
+        <v>0.02747488914663793</v>
       </c>
       <c r="T20">
-        <v>0.03223615317505066</v>
+        <v>0.03216867049973906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.384898204595</v>
+        <v>39.03202233333334</v>
       </c>
       <c r="H21">
-        <v>35.384898204595</v>
+        <v>117.096067</v>
       </c>
       <c r="I21">
-        <v>0.1734501127301992</v>
+        <v>0.1368922672858171</v>
       </c>
       <c r="J21">
-        <v>0.1734501127301992</v>
+        <v>0.1380744778207792</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N21">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O21">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P21">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q21">
-        <v>1594.302979881491</v>
+        <v>1771.454711422539</v>
       </c>
       <c r="R21">
-        <v>1594.302979881491</v>
+        <v>10628.72826853524</v>
       </c>
       <c r="S21">
-        <v>0.07812953759772334</v>
+        <v>0.05689336164938315</v>
       </c>
       <c r="T21">
-        <v>0.07812953759772334</v>
+        <v>0.0444086427368523</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.28402500691168</v>
+        <v>7.3239405</v>
       </c>
       <c r="H22">
-        <v>5.28402500691168</v>
+        <v>14.647881</v>
       </c>
       <c r="I22">
-        <v>0.02590129630495888</v>
+        <v>0.02568636623409617</v>
       </c>
       <c r="J22">
-        <v>0.02590129630495888</v>
+        <v>0.01727213024375885</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N22">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O22">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P22">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q22">
-        <v>6.907710316463048</v>
+        <v>15.512813959915</v>
       </c>
       <c r="R22">
-        <v>6.907710316463048</v>
+        <v>93.07688375949002</v>
       </c>
       <c r="S22">
-        <v>0.0003385154639329586</v>
+        <v>0.0004982211112314039</v>
       </c>
       <c r="T22">
-        <v>0.0003385154639329586</v>
+        <v>0.0003888911235195549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.28402500691168</v>
+        <v>7.3239405</v>
       </c>
       <c r="H23">
-        <v>5.28402500691168</v>
+        <v>14.647881</v>
       </c>
       <c r="I23">
-        <v>0.02590129630495888</v>
+        <v>0.02568636623409617</v>
       </c>
       <c r="J23">
-        <v>0.02590129630495888</v>
+        <v>0.01727213024375885</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N23">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P23">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q23">
-        <v>86.46416710897367</v>
+        <v>132.328107376902</v>
       </c>
       <c r="R23">
-        <v>86.46416710897367</v>
+        <v>793.9686442614121</v>
       </c>
       <c r="S23">
-        <v>0.004237215560807984</v>
+        <v>0.004249948260504371</v>
       </c>
       <c r="T23">
-        <v>0.004237215560807984</v>
+        <v>0.003317336653684828</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.28402500691168</v>
+        <v>7.3239405</v>
       </c>
       <c r="H24">
-        <v>5.28402500691168</v>
+        <v>14.647881</v>
       </c>
       <c r="I24">
-        <v>0.02590129630495888</v>
+        <v>0.02568636623409617</v>
       </c>
       <c r="J24">
-        <v>0.02590129630495888</v>
+        <v>0.01727213024375885</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N24">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O24">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P24">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q24">
-        <v>98.85966273227922</v>
+        <v>159.0260457097305</v>
       </c>
       <c r="R24">
-        <v>98.85966273227922</v>
+        <v>954.1562742583831</v>
       </c>
       <c r="S24">
-        <v>0.004844662422266811</v>
+        <v>0.005107399174190322</v>
       </c>
       <c r="T24">
-        <v>0.004844662422266811</v>
+        <v>0.003986627941567091</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.28402500691168</v>
+        <v>7.3239405</v>
       </c>
       <c r="H25">
-        <v>5.28402500691168</v>
+        <v>14.647881</v>
       </c>
       <c r="I25">
-        <v>0.02590129630495888</v>
+        <v>0.02568636623409617</v>
       </c>
       <c r="J25">
-        <v>0.02590129630495888</v>
+        <v>0.01727213024375885</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N25">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O25">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P25">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q25">
-        <v>98.23035832494695</v>
+        <v>160.51963398509</v>
       </c>
       <c r="R25">
-        <v>98.23035832494695</v>
+        <v>963.11780391054</v>
       </c>
       <c r="S25">
-        <v>0.004813823075559491</v>
+        <v>0.00515536836999159</v>
       </c>
       <c r="T25">
-        <v>0.004813823075559491</v>
+        <v>0.004024070743626156</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.28402500691168</v>
+        <v>7.3239405</v>
       </c>
       <c r="H26">
-        <v>5.28402500691168</v>
+        <v>14.647881</v>
       </c>
       <c r="I26">
-        <v>0.02590129630495888</v>
+        <v>0.02568636623409617</v>
       </c>
       <c r="J26">
-        <v>0.02590129630495888</v>
+        <v>0.01727213024375885</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N26">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O26">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P26">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q26">
-        <v>238.0771809933776</v>
+        <v>332.3944835372656</v>
       </c>
       <c r="R26">
-        <v>238.0771809933776</v>
+        <v>1329.577934149062</v>
       </c>
       <c r="S26">
-        <v>0.01166707978239164</v>
+        <v>0.01067542931817848</v>
       </c>
       <c r="T26">
-        <v>0.01166707978239164</v>
+        <v>0.005555203781361219</v>
       </c>
     </row>
   </sheetData>
